--- a/public/assets/incidentsReport.xlsx
+++ b/public/assets/incidentsReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S530468\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S530468\Desktop\Backend-Working Version\New\DisasterResponseAndReportingSystem-Backend\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,17 +24,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Testing</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Incident Name</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Earthquake</t>
+  </si>
+  <si>
+    <t>Maryville</t>
+  </si>
+  <si>
+    <t>Goldfinger was two hundred miles away, in the city of Kashiwa, at an international meeting on seismology.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -62,8 +91,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,20 +383,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43356</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/assets/incidentsReport.xlsx
+++ b/public/assets/incidentsReport.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S530468\Desktop\Backend-Working Version\New\DisasterResponseAndReportingSystem-Backend\public\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S530469\OneDrive - nwmissouri.edu\Fall 2018\GDP-2\Working branch\DisasterResponseAndReportingSystem-Backend\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D8EDF959-B146-408C-9AD4-05D590A373AD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Achived Incidents" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Incident Name</t>
   </si>
@@ -48,13 +49,43 @@
   </si>
   <si>
     <t>Goldfinger was two hundred miles away, in the city of Kashiwa, at an international meeting on seismology.</t>
+  </si>
+  <si>
+    <t>Flood</t>
+  </si>
+  <si>
+    <t>Savanna</t>
+  </si>
+  <si>
+    <t>A flood is an overflow of water that submerges land that is usually dry.</t>
+  </si>
+  <si>
+    <t>Tornado</t>
+  </si>
+  <si>
+    <t>A "destructive" tornado has been reported on the ground Tuesday afternoon in northwestern Maryville.</t>
+  </si>
+  <si>
+    <t>Wildfire</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t> 62 large fires in the western United States. No new large fires were reported.</t>
+  </si>
+  <si>
+    <t>Archived Incidents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,16 +101,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -87,22 +136,150 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,53 +559,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="12">
         <v>43356</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
+      <c r="D3" s="13">
+        <v>0.3125</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43356</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43357</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4">
+        <v>43375</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
